--- a/Original Files/SGMC Invoice - #4185042 Cath Lab ORIG.xlsx
+++ b/Original Files/SGMC Invoice - #4185042 Cath Lab ORIG.xlsx
@@ -2406,4 +2406,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2C9ADB-63F4-4154-9991-B7EAC7A22C9A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81FF3656-A952-4774-895F-6BDF6F04F108}"/>
 </file>
--- a/Original Files/SGMC Invoice - #4185042 Cath Lab ORIG.xlsx
+++ b/Original Files/SGMC Invoice - #4185042 Cath Lab ORIG.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26039F98-CBDB-45F9-B064-644B372122C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ACE916-DBBD-485A-80FD-B87009444FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B89A8AD-A422-477F-9AAD-0DB79EFFA416}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{BFC3A6A6-DA35-43BF-A4FC-F7DF0EFC9187}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -180,7 +180,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -579,7 +579,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502CD8DB-A748-8937-47D8-0D234AB166EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117255AA-2290-D6F6-B387-5D9E2552D296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,39 +625,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -709,7 +709,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -820,13 +820,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -835,6 +828,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -899,18 +899,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81A9B42-CAC7-4270-883E-F7433457EBE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D5E69-3544-43F6-80E6-97FF8C9EABED}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1274,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351D878-2B89-42B5-9EB0-DAA9B4568825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47876AFA-6E30-47C2-96C4-3ED3C63B8910}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2406,276 +2426,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2C9ADB-63F4-4154-9991-B7EAC7A22C9A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81FF3656-A952-4774-895F-6BDF6F04F108}"/>
 </file>